--- a/trunk/ASISTENCIA A CLASES.xlsx
+++ b/trunk/ASISTENCIA A CLASES.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Fecha (martes)</t>
   </si>
   <si>
-    <t>¿Qué Muestra?</t>
-  </si>
-  <si>
     <t>HITO</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Lenadro</t>
   </si>
   <si>
-    <t>Hydro en gral…. Web si lo pide; TP2</t>
-  </si>
-  <si>
     <t>Leandro</t>
   </si>
   <si>
@@ -61,6 +55,21 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>¿Qué Mostró?</t>
+  </si>
+  <si>
+    <t>Correcciones a Hacer</t>
+  </si>
+  <si>
+    <t>Responsable Corrección</t>
+  </si>
+  <si>
+    <t>Hydro Desktop completo. TP Factibilidad. Detalle Sprints.</t>
+  </si>
+  <si>
+    <t>Agregar Plan de Contingencia (solo nombrarlo) en el análisis de riesgos. Detallar más el modelo lógico. Enviar mail a D. Villa preguntando las correcciones de antes de las mesas</t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +131,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -289,51 +304,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,8 +323,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,212 +698,264 @@
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45" style="13" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>40771</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="C2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>40778</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>40785</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>40792</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>40799</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>40806</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>40813</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>40820</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>40827</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>40834</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>40841</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>40848</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>40855</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>40771</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>40862</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="11" t="s">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>40778</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>40785</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>40792</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>40799</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>40806</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>40813</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>40820</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>40827</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>40834</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>40841</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>40848</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
-        <v>40855</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>40862</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/ASISTENCIA A CLASES.xlsx
+++ b/trunk/ASISTENCIA A CLASES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>Fecha (martes)</t>
   </si>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +95,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -385,6 +391,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +755,7 @@
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>40778</v>
       </c>
@@ -763,8 +772,8 @@
       <c r="A4" s="18">
         <v>40785</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>12</v>
+      <c r="B4" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -773,37 +782,32 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="27">
         <v>40792</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="31">
         <v>40799</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
+      <c r="B6" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>40806</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>12</v>
+      <c r="B7" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -815,8 +819,8 @@
       <c r="A8" s="18">
         <v>40813</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>7</v>
+      <c r="B8" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -828,8 +832,8 @@
       <c r="A9" s="18">
         <v>40820</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>8</v>
+      <c r="B9" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -841,8 +845,8 @@
       <c r="A10" s="18">
         <v>40827</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>10</v>
+      <c r="B10" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -854,8 +858,8 @@
       <c r="A11" s="18">
         <v>40834</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>8</v>
+      <c r="B11" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -867,8 +871,8 @@
       <c r="A12" s="18">
         <v>40841</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>12</v>
+      <c r="B12" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -883,7 +887,9 @@
       <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="D13" s="25"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -929,33 +935,68 @@
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
+      <c r="D17" s="26" t="s">
+        <v>12</v>
+      </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D19" s="26" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D20" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D21" s="20" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D22" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/ASISTENCIA A CLASES.xlsx
+++ b/trunk/ASISTENCIA A CLASES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Fecha (martes)</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Adrian</t>
-  </si>
-  <si>
-    <t>Lenadro</t>
   </si>
   <si>
     <t>Leandro</t>
@@ -76,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,12 +92,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -310,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -391,9 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,7 +398,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -696,13 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -724,13 +712,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>1</v>
@@ -747,20 +735,20 @@
         <v>8</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>40778</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -772,8 +760,8 @@
       <c r="A4" s="18">
         <v>40785</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>2</v>
+      <c r="B4" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -782,32 +770,37 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="18">
         <v>40792</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="B5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="27">
         <v>40799</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>40806</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>10</v>
+      <c r="B7" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -819,8 +812,8 @@
       <c r="A8" s="18">
         <v>40813</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>12</v>
+      <c r="B8" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -832,8 +825,8 @@
       <c r="A9" s="18">
         <v>40820</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>7</v>
+      <c r="B9" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -845,8 +838,8 @@
       <c r="A10" s="18">
         <v>40827</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>8</v>
+      <c r="B10" s="24" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -858,8 +851,8 @@
       <c r="A11" s="18">
         <v>40834</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>10</v>
+      <c r="B11" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -871,8 +864,8 @@
       <c r="A12" s="18">
         <v>40841</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>8</v>
+      <c r="B12" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -887,9 +880,7 @@
       <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>12</v>
-      </c>
+      <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -935,68 +926,33 @@
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="26" t="s">
-        <v>12</v>
-      </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1009,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1021,7 +977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/ASISTENCIA A CLASES.xlsx
+++ b/trunk/ASISTENCIA A CLASES.xlsx
@@ -398,7 +398,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,10 +687,10 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" customWidth="1"/>
@@ -965,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -977,7 +977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/ASISTENCIA A CLASES.xlsx
+++ b/trunk/ASISTENCIA A CLASES.xlsx
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,8 +851,8 @@
       <c r="A11" s="18">
         <v>40834</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>8</v>
+      <c r="B11" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -864,8 +864,8 @@
       <c r="A12" s="18">
         <v>40841</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>11</v>
+      <c r="B12" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
@@ -877,8 +877,8 @@
       <c r="A13" s="18">
         <v>40848</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>7</v>
+      <c r="B13" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
